--- a/RegressionTests/Unit_Test_5/transformed_secondzip/expected_aptrans_PPS.xlsx
+++ b/RegressionTests/Unit_Test_5/transformed_secondzip/expected_aptrans_PPS.xlsx
@@ -10,7 +10,6 @@
     <sheet name="~Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="sheet1" sheetId="2" r:id="rId3"/>
     <sheet name="#Sheet1" sheetId="3" r:id="rId4"/>
-    <sheet name="$Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913"/>
@@ -19,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="152">
   <si>
     <t>PPSNO</t>
   </si>
@@ -225,15 +224,99 @@
     <t>FORENAME</t>
   </si>
   <si>
+    <t>PPS number 8612683 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>8612683</t>
   </si>
   <si>
+    <t>PPS number 6613116Z does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 4254780k does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 7312247V does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 8305512O does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 2322706T does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 4415311 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>4415311</t>
   </si>
   <si>
+    <t>PPS number 6339141R does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 4046125N does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 7402776J does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 8831566T does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 8227741H does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 6135893E does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 5358592 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>5358592</t>
   </si>
   <si>
+    <t>PPS number 6862394e does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 6873517Y does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 4523928V does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 5670179M does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 5018727B does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 9224353J does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 8597881w does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>NEG_ROWS</t>
   </si>
   <si>
@@ -246,26 +329,179 @@
     <t>2794.3</t>
   </si>
   <si>
-    <t>1_Errors_found</t>
-  </si>
-  <si>
-    <t>Error Type</t>
-  </si>
-  <si>
-    <t>Error Description</t>
-  </si>
-  <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>1178489</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>18/08/2021</t>
+  </si>
+  <si>
+    <t>7,517.33</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM August 2021</t>
+  </si>
+  <si>
+    <t>1173971</t>
+  </si>
+  <si>
+    <t>16/07/2021</t>
+  </si>
+  <si>
+    <t>1,533.32</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>ILIM Julne 2021</t>
+  </si>
+  <si>
+    <t>1173522</t>
+  </si>
+  <si>
+    <t>5,984.01</t>
+  </si>
+  <si>
+    <t>ILIM June 2021</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>1149840</t>
+  </si>
+  <si>
+    <t>101002</t>
+  </si>
+  <si>
+    <t>25/02/2021</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>19,177.74</t>
+  </si>
+  <si>
+    <t>Revised Risk (Total/12*4)</t>
+  </si>
+  <si>
+    <t>1122062</t>
+  </si>
+  <si>
+    <t>01/07/2020</t>
+  </si>
+  <si>
+    <t>19,974.02</t>
+  </si>
+  <si>
+    <t>2020Risk</t>
+  </si>
+  <si>
+    <t>1067417</t>
+  </si>
+  <si>
+    <t>01/07/2019</t>
+  </si>
+  <si>
+    <t>15,889.15</t>
+  </si>
+  <si>
+    <t>2019 Costs</t>
+  </si>
+  <si>
+    <t>35300</t>
+  </si>
+  <si>
+    <t>101000</t>
+  </si>
+  <si>
+    <t>30/05/2000</t>
+  </si>
+  <si>
+    <t>06/04/2000</t>
+  </si>
+  <si>
+    <t>1,250.13</t>
+  </si>
+  <si>
+    <t>01/05/2000</t>
+  </si>
+  <si>
+    <t>May 00</t>
+  </si>
+  <si>
+    <t>35036</t>
+  </si>
+  <si>
+    <t>24/05/2000</t>
+  </si>
+  <si>
+    <t>03/05/2000</t>
+  </si>
+  <si>
+    <t>01/04/2000</t>
+  </si>
+  <si>
+    <t>Apr '00 intd</t>
+  </si>
+  <si>
+    <t>29038</t>
+  </si>
+  <si>
+    <t>15/03/2000</t>
+  </si>
+  <si>
+    <t>01/03/2000</t>
+  </si>
+  <si>
+    <t>Mar 00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,8 +521,16 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -297,25 +541,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -374,7 +613,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
@@ -382,18 +621,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2183,7 +2421,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="3"/>
+    <col min="1" max="1" width="55" style="3"/>
     <col min="2" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
@@ -2210,10 +2448,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="6"/>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -2231,8 +2471,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="6"/>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2252,8 +2494,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2273,8 +2517,10 @@
         <v>19.89</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
@@ -2294,8 +2540,10 @@
         <v>65.0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
@@ -2315,8 +2563,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
@@ -2336,10 +2586,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="B8" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>24</v>
@@ -2357,8 +2609,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:7" ht="30">
+      <c r="A9" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
@@ -2378,8 +2632,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2399,8 +2655,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:7" ht="30">
+      <c r="A11" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
@@ -2420,8 +2678,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
@@ -2441,8 +2701,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
@@ -2462,8 +2724,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25">
-      <c r="A14" s="6"/>
+    <row r="14" spans="1:7" ht="30">
+      <c r="A14" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
@@ -2483,10 +2747,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25">
-      <c r="A15" s="6"/>
+    <row r="15" spans="1:7" ht="30">
+      <c r="A15" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="B15" s="3" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>43</v>
@@ -2504,8 +2770,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:7" ht="30">
+      <c r="A16" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
@@ -2525,8 +2793,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:7" ht="30">
+      <c r="A17" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="B17" s="3" t="s">
         <v>48</v>
       </c>
@@ -2546,8 +2816,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.25">
-      <c r="A18" s="6"/>
+    <row r="18" spans="1:7" ht="30">
+      <c r="A18" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
@@ -2567,8 +2839,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.25">
-      <c r="A19" s="6"/>
+    <row r="19" spans="1:7" ht="30">
+      <c r="A19" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>54</v>
       </c>
@@ -2588,8 +2862,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.25">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:7" ht="30">
+      <c r="A20" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>56</v>
       </c>
@@ -2609,8 +2885,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.25">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:7" ht="30">
+      <c r="A21" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>59</v>
       </c>
@@ -2630,8 +2908,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.25">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:7" ht="30">
+      <c r="A22" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>62</v>
       </c>
@@ -2659,7 +2939,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -2667,7 +2947,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9.25" style="3"/>
+    <col min="1" max="1" width="17.75" style="3"/>
+    <col min="2" max="2" width="14.125" style="3"/>
+    <col min="3" max="3" width="8.25" style="3"/>
+    <col min="4" max="4" width="15.75" style="3"/>
+    <col min="5" max="5" width="13.25" style="3"/>
+    <col min="6" max="6" width="12.625" style="3"/>
+    <col min="7" max="7" width="15.75" style="3"/>
+    <col min="8" max="8" width="10.5" style="3"/>
+    <col min="9" max="9" width="22.125" style="3"/>
+    <col min="10" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
@@ -2694,64 +2983,312 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="3" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="3" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>79</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15">
+      <c r="A19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15">
+      <c r="A20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15">
+      <c r="A21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/Unit_Test_5/transformed_secondzip/expected_aptrans_PPS.xlsx
+++ b/RegressionTests/Unit_Test_5/transformed_secondzip/expected_aptrans_PPS.xlsx
@@ -566,14 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -586,6 +578,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="20">
@@ -613,7 +613,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
@@ -622,11 +622,14 @@
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2472,7 +2475,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2495,7 +2498,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2518,7 +2521,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2541,7 +2544,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2564,7 +2567,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2587,7 +2590,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2610,7 +2613,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2633,7 +2636,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2656,7 +2659,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2679,7 +2682,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2702,7 +2705,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2725,7 +2728,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2748,7 +2751,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="30">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2771,7 +2774,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="30">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2794,7 +2797,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2817,7 +2820,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="30">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2840,7 +2843,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="30">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2863,7 +2866,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="30">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2886,7 +2889,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="30">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2909,7 +2912,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="30">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -3002,31 +3005,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="8" t="s">
         <v>104</v>
       </c>
     </row>

--- a/RegressionTests/Unit_Test_5/transformed_secondzip/expected_aptrans_PPS.xlsx
+++ b/RegressionTests/Unit_Test_5/transformed_secondzip/expected_aptrans_PPS.xlsx
@@ -10,6 +10,7 @@
     <sheet name="~Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="sheet1" sheetId="2" r:id="rId3"/>
     <sheet name="#Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="$Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
   <si>
     <t>PPSNO</t>
   </si>
@@ -224,99 +225,15 @@
     <t>FORENAME</t>
   </si>
   <si>
-    <t>PPS number 8612683 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>8612683</t>
   </si>
   <si>
-    <t>PPS number 6613116Z does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 4254780k does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 7312247V does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 8305512O does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 2322706T does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 4415311 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>4415311</t>
   </si>
   <si>
-    <t>PPS number 6339141R does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 4046125N does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 7402776J does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 8831566T does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 8227741H does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 6135893E does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 5358592 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>5358592</t>
   </si>
   <si>
-    <t>PPS number 6862394e does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 6873517Y does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 4523928V does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 5670179M does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 5018727B does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 9224353J does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 8597881w does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>NEG_ROWS</t>
   </si>
   <si>
@@ -329,179 +246,26 @@
     <t>2794.3</t>
   </si>
   <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>1178489</t>
-  </si>
-  <si>
-    <t>101001</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>18/08/2021</t>
-  </si>
-  <si>
-    <t>7,517.33</t>
-  </si>
-  <si>
-    <t>01/08/2021</t>
-  </si>
-  <si>
-    <t>ILIM August 2021</t>
-  </si>
-  <si>
-    <t>1173971</t>
-  </si>
-  <si>
-    <t>16/07/2021</t>
-  </si>
-  <si>
-    <t>1,533.32</t>
-  </si>
-  <si>
-    <t>01/06/2021</t>
-  </si>
-  <si>
-    <t>ILIM Julne 2021</t>
-  </si>
-  <si>
-    <t>1173522</t>
-  </si>
-  <si>
-    <t>5,984.01</t>
-  </si>
-  <si>
-    <t>ILIM June 2021</t>
-  </si>
-  <si>
-    <t>Annually</t>
-  </si>
-  <si>
-    <t>1149840</t>
-  </si>
-  <si>
-    <t>101002</t>
-  </si>
-  <si>
-    <t>25/02/2021</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>19,177.74</t>
-  </si>
-  <si>
-    <t>Revised Risk (Total/12*4)</t>
-  </si>
-  <si>
-    <t>1122062</t>
-  </si>
-  <si>
-    <t>01/07/2020</t>
-  </si>
-  <si>
-    <t>19,974.02</t>
-  </si>
-  <si>
-    <t>2020Risk</t>
-  </si>
-  <si>
-    <t>1067417</t>
-  </si>
-  <si>
-    <t>01/07/2019</t>
-  </si>
-  <si>
-    <t>15,889.15</t>
-  </si>
-  <si>
-    <t>2019 Costs</t>
-  </si>
-  <si>
-    <t>35300</t>
-  </si>
-  <si>
-    <t>101000</t>
-  </si>
-  <si>
-    <t>30/05/2000</t>
-  </si>
-  <si>
-    <t>06/04/2000</t>
-  </si>
-  <si>
-    <t>1,250.13</t>
-  </si>
-  <si>
-    <t>01/05/2000</t>
-  </si>
-  <si>
-    <t>May 00</t>
-  </si>
-  <si>
-    <t>35036</t>
-  </si>
-  <si>
-    <t>24/05/2000</t>
-  </si>
-  <si>
-    <t>03/05/2000</t>
-  </si>
-  <si>
-    <t>01/04/2000</t>
-  </si>
-  <si>
-    <t>Apr '00 intd</t>
-  </si>
-  <si>
-    <t>29038</t>
-  </si>
-  <si>
-    <t>15/03/2000</t>
-  </si>
-  <si>
-    <t>01/03/2000</t>
-  </si>
-  <si>
-    <t>Mar 00</t>
+    <t>1_Errors_found</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>Error Description</t>
+  </si>
+  <si>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,16 +285,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -542,6 +298,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -549,12 +306,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -613,7 +382,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
@@ -621,20 +390,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2424,11 +2194,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55" style="3"/>
+    <col min="1" max="1" width="16.25" style="3"/>
     <col min="2" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" ht="30">
       <c r="A1" s="4" t="s">
         <v>65</v>
       </c>
@@ -2451,12 +2221,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -2474,10 +2242,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="7" t="s">
-        <v>70</v>
-      </c>
+    <row r="3" spans="1:7" ht="14.25">
+      <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2497,10 +2263,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="7" t="s">
-        <v>71</v>
-      </c>
+    <row r="4" spans="1:7" ht="14.25">
+      <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2520,10 +2284,8 @@
         <v>19.89</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="7" t="s">
-        <v>72</v>
-      </c>
+    <row r="5" spans="1:7" ht="14.25">
+      <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
@@ -2543,10 +2305,8 @@
         <v>65.0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="7" t="s">
-        <v>73</v>
-      </c>
+    <row r="6" spans="1:7" ht="14.25">
+      <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
@@ -2566,10 +2326,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="7" t="s">
-        <v>74</v>
-      </c>
+    <row r="7" spans="1:7" ht="14.25">
+      <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
@@ -2589,12 +2347,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="7" t="s">
-        <v>75</v>
-      </c>
+    <row r="8" spans="1:7" ht="14.25">
+      <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>24</v>
@@ -2612,10 +2368,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="7" t="s">
-        <v>77</v>
-      </c>
+    <row r="9" spans="1:7" ht="14.25">
+      <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
@@ -2635,10 +2389,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="7" t="s">
-        <v>78</v>
-      </c>
+    <row r="10" spans="1:7" ht="14.25">
+      <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2658,10 +2410,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="7" t="s">
-        <v>79</v>
-      </c>
+    <row r="11" spans="1:7" ht="14.25">
+      <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
@@ -2681,10 +2431,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="7" t="s">
-        <v>80</v>
-      </c>
+    <row r="12" spans="1:7" ht="14.25">
+      <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
@@ -2704,10 +2452,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="7" t="s">
-        <v>81</v>
-      </c>
+    <row r="13" spans="1:7" ht="14.25">
+      <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
@@ -2727,10 +2473,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="7" t="s">
-        <v>82</v>
-      </c>
+    <row r="14" spans="1:7" ht="14.25">
+      <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
@@ -2750,12 +2494,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30">
-      <c r="A15" s="7" t="s">
-        <v>83</v>
-      </c>
+    <row r="15" spans="1:7" ht="14.25">
+      <c r="A15" s="7"/>
       <c r="B15" s="3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>43</v>
@@ -2773,10 +2515,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30">
-      <c r="A16" s="7" t="s">
-        <v>85</v>
-      </c>
+    <row r="16" spans="1:7" ht="14.25">
+      <c r="A16" s="7"/>
       <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
@@ -2796,10 +2536,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="7" t="s">
-        <v>86</v>
-      </c>
+    <row r="17" spans="1:7" ht="14.25">
+      <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
         <v>48</v>
       </c>
@@ -2819,10 +2557,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30">
-      <c r="A18" s="7" t="s">
-        <v>87</v>
-      </c>
+    <row r="18" spans="1:7" ht="14.25">
+      <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
@@ -2842,10 +2578,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30">
-      <c r="A19" s="7" t="s">
-        <v>88</v>
-      </c>
+    <row r="19" spans="1:7" ht="14.25">
+      <c r="A19" s="7"/>
       <c r="B19" s="3" t="s">
         <v>54</v>
       </c>
@@ -2865,10 +2599,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30">
-      <c r="A20" s="7" t="s">
-        <v>89</v>
-      </c>
+    <row r="20" spans="1:7" ht="14.25">
+      <c r="A20" s="7"/>
       <c r="B20" s="3" t="s">
         <v>56</v>
       </c>
@@ -2888,10 +2620,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30">
-      <c r="A21" s="7" t="s">
-        <v>90</v>
-      </c>
+    <row r="21" spans="1:7" ht="14.25">
+      <c r="A21" s="7"/>
       <c r="B21" s="3" t="s">
         <v>59</v>
       </c>
@@ -2911,10 +2641,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30">
-      <c r="A22" s="7" t="s">
-        <v>91</v>
-      </c>
+    <row r="22" spans="1:7" ht="14.25">
+      <c r="A22" s="7"/>
       <c r="B22" s="3" t="s">
         <v>62</v>
       </c>
@@ -2942,7 +2670,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -2950,16 +2678,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="3"/>
-    <col min="2" max="2" width="14.125" style="3"/>
-    <col min="3" max="3" width="8.25" style="3"/>
-    <col min="4" max="4" width="15.75" style="3"/>
-    <col min="5" max="5" width="13.25" style="3"/>
-    <col min="6" max="6" width="12.625" style="3"/>
-    <col min="7" max="7" width="15.75" style="3"/>
-    <col min="8" max="8" width="10.5" style="3"/>
-    <col min="9" max="9" width="22.125" style="3"/>
-    <col min="10" max="16384" width="9.25" style="3"/>
+    <col min="1" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
@@ -2986,312 +2705,64 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15">
-      <c r="A19" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15">
-      <c r="A20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15">
-      <c r="A21" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>151</v>
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
